--- a/Results/Results_BAU_2030_specific_reserve_margin_high.xlsx
+++ b/Results/Results_BAU_2030_specific_reserve_margin_high.xlsx
@@ -533,52 +533,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>0.01</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
         <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -586,52 +586,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5045</v>
+        <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
         <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="P3" t="n">
-        <v>5045</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -639,52 +639,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>697.9</v>
@@ -830,10 +830,10 @@
         <v>697.9</v>
       </c>
       <c r="H2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>697.9</v>
@@ -842,10 +842,10 @@
         <v>697.9</v>
       </c>
       <c r="L2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>697.9</v>
@@ -854,10 +854,10 @@
         <v>697.9</v>
       </c>
       <c r="P2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>697.9</v>
@@ -881,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>697.9</v>
@@ -893,10 +893,10 @@
         <v>697.9</v>
       </c>
       <c r="H3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>697.9</v>
@@ -905,10 +905,10 @@
         <v>697.9</v>
       </c>
       <c r="L3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>697.9</v>
@@ -917,10 +917,10 @@
         <v>697.9</v>
       </c>
       <c r="P3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>697.9</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>583.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.37219042947561</v>
+        <v>583.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>583.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>583.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>583.2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>583.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>583.2</v>
       </c>
     </row>
     <row r="5">
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>920</v>
@@ -1019,10 +1019,10 @@
         <v>920</v>
       </c>
       <c r="H5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>920</v>
@@ -1031,10 +1031,10 @@
         <v>920</v>
       </c>
       <c r="L5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>920</v>
@@ -1043,10 +1043,10 @@
         <v>920</v>
       </c>
       <c r="P5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>920</v>
@@ -1070,52 +1070,52 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>799.2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>324.992700966905</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>156.7206785401786</v>
       </c>
       <c r="G6" t="n">
-        <v>413.7518661933104</v>
+        <v>799.2</v>
       </c>
       <c r="H6" t="n">
-        <v>677.7470852254837</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>277.8137634038137</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>799.2</v>
       </c>
       <c r="K6" t="n">
-        <v>351.2032218352892</v>
+        <v>799.2</v>
       </c>
       <c r="L6" t="n">
-        <v>462.9991169677844</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>185.3815591985733</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>655.3522456263746</v>
+        <v>799.2</v>
       </c>
       <c r="O6" t="n">
-        <v>270.1110797200436</v>
+        <v>799.2</v>
       </c>
       <c r="P6" t="n">
-        <v>638.9840427983634</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.1907899667349</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>799.2</v>
       </c>
       <c r="S6" t="n">
-        <v>328.3804553648595</v>
+        <v>799.2</v>
       </c>
     </row>
     <row r="7">
@@ -1133,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>977.5</v>
@@ -1145,10 +1145,10 @@
         <v>977.5</v>
       </c>
       <c r="H7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>977.5</v>
@@ -1157,10 +1157,10 @@
         <v>977.5</v>
       </c>
       <c r="L7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>977.5</v>
@@ -1169,10 +1169,10 @@
         <v>977.5</v>
       </c>
       <c r="P7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>977.5</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>977.5</v>
@@ -1196,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>2244.8</v>
@@ -1208,10 +1208,10 @@
         <v>2244.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2244.8</v>
@@ -1220,10 +1220,10 @@
         <v>2244.8</v>
       </c>
       <c r="L8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>2244.8</v>
@@ -1232,10 +1232,10 @@
         <v>2244.8</v>
       </c>
       <c r="P8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>2244.8</v>
@@ -1259,10 +1259,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>730</v>
@@ -1271,10 +1271,10 @@
         <v>730</v>
       </c>
       <c r="H9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>730</v>
@@ -1283,10 +1283,10 @@
         <v>730</v>
       </c>
       <c r="L9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>730</v>
@@ -1295,10 +1295,10 @@
         <v>730</v>
       </c>
       <c r="P9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>730</v>
@@ -1322,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>160.801862734598</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>271.2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>271.2</v>
@@ -1334,10 +1334,10 @@
         <v>271.2</v>
       </c>
       <c r="H10" t="n">
-        <v>271.2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>271.2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>271.2</v>
@@ -1346,10 +1346,10 @@
         <v>271.2</v>
       </c>
       <c r="L10" t="n">
-        <v>271.2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>271.2</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>271.2</v>
@@ -1358,13 +1358,13 @@
         <v>271.2</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>271.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>271.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>190.756743727037</v>
       </c>
       <c r="S10" t="n">
         <v>271.2</v>
@@ -1385,10 +1385,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>979.7</v>
@@ -1397,10 +1397,10 @@
         <v>979.7</v>
       </c>
       <c r="H11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>979.7</v>
@@ -1409,10 +1409,10 @@
         <v>979.7</v>
       </c>
       <c r="L11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>979.7</v>
@@ -1421,16 +1421,205 @@
         <v>979.7</v>
       </c>
       <c r="P11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>979.7</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>979.7</v>
       </c>
       <c r="S11" t="n">
         <v>979.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>49.75422537793213</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1190.318730470164</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1599.445187764741</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1007.359468533045</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>618.8969642342728</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7167.222007100343</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>900.9171435578683</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7896.451672470663</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2762.758830183136</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9321.833804199348</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8447.793169527111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4227.545894411379</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1679.107778322786</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9820.079078588293</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>628.4173156043819</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5903.355069932825</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1277.692875765434</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5223.545687409974</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>2337.7</v>
@@ -1576,10 +1765,10 @@
         <v>2337.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1205</v>
@@ -1588,10 +1777,10 @@
         <v>1205</v>
       </c>
       <c r="L2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>2337.7</v>
@@ -1600,10 +1789,10 @@
         <v>2337.7</v>
       </c>
       <c r="P2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>2337.7</v>
@@ -1627,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>2425</v>
@@ -1639,10 +1828,10 @@
         <v>2425</v>
       </c>
       <c r="H3" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1250</v>
@@ -1651,10 +1840,10 @@
         <v>1250</v>
       </c>
       <c r="L3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>2425</v>
@@ -1663,10 +1852,10 @@
         <v>2425</v>
       </c>
       <c r="P3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>2425</v>
@@ -1690,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>2716</v>
@@ -1702,10 +1891,10 @@
         <v>2716</v>
       </c>
       <c r="H4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1400</v>
@@ -1714,10 +1903,10 @@
         <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>2716</v>
@@ -1726,10 +1915,10 @@
         <v>2716</v>
       </c>
       <c r="P4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>2716</v>
@@ -1753,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>2795.734</v>
@@ -1765,10 +1954,10 @@
         <v>2795.734</v>
       </c>
       <c r="H5" t="n">
-        <v>1441.1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1441.1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>1441.1</v>
@@ -1777,10 +1966,10 @@
         <v>1441.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>2795.734</v>
@@ -1789,10 +1978,10 @@
         <v>2795.734</v>
       </c>
       <c r="P5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>2795.734</v>
@@ -1816,10 +2005,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>745.542</v>
@@ -1828,10 +2017,10 @@
         <v>745.542</v>
       </c>
       <c r="H6" t="n">
-        <v>384.3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>384.3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>384.3</v>
@@ -1840,10 +2029,10 @@
         <v>384.3</v>
       </c>
       <c r="L6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>745.542</v>
@@ -1852,10 +2041,10 @@
         <v>745.542</v>
       </c>
       <c r="P6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>745.542</v>
@@ -1879,10 +2068,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>922.3729999999999</v>
@@ -1891,10 +2080,10 @@
         <v>922.3729999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>475.45</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>475.45</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>475.45</v>
@@ -1903,10 +2092,10 @@
         <v>475.45</v>
       </c>
       <c r="L7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>922.3729999999999</v>
@@ -1915,10 +2104,10 @@
         <v>922.3729999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>922.3729999999999</v>
@@ -2038,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>348.3300264602657</v>
+        <v>3723.987581769346</v>
       </c>
       <c r="C2" t="n">
-        <v>348.3300264602657</v>
+        <v>6149.381993553968</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2050,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6483151728375</v>
+        <v>3797.686098496776</v>
       </c>
       <c r="G2" t="n">
-        <v>455.6483151728375</v>
+        <v>6463.908243974576</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2062,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>444.1308669793283</v>
+        <v>5229.339220214772</v>
       </c>
       <c r="K2" t="n">
-        <v>444.1308669793283</v>
+        <v>7080.122938676179</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -2074,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>342.2063602120054</v>
+        <v>4056.106381344246</v>
       </c>
       <c r="O2" t="n">
-        <v>342.2063602120054</v>
+        <v>6868.061400221769</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2091,10 +2280,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>348.3300264602657</v>
+        <v>9503.972058981029</v>
       </c>
       <c r="C3" t="n">
-        <v>348.3300264602657</v>
+        <v>14961.10948549643</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2103,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>455.6483151728375</v>
+        <v>9669.793721617745</v>
       </c>
       <c r="G3" t="n">
-        <v>455.6483151728375</v>
+        <v>15668.7935489428</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2115,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>444.1308669793283</v>
+        <v>12891.01324548323</v>
       </c>
       <c r="K3" t="n">
-        <v>444.1308669793283</v>
+        <v>17055.2766120214</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -2127,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>342.2063602120054</v>
+        <v>10251.23935802455</v>
       </c>
       <c r="O3" t="n">
-        <v>342.2063602120054</v>
+        <v>16578.13815049898</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2144,10 +2333,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>348.3300264602657</v>
+        <v>9891.978268096356</v>
       </c>
       <c r="C4" t="n">
-        <v>348.3300264602657</v>
+        <v>14136.41848871944</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2156,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>455.6483151728375</v>
+        <v>10020.95067236936</v>
       </c>
       <c r="G4" t="n">
-        <v>455.6483151728375</v>
+        <v>14686.83942695551</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2168,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>444.1308669793283</v>
+        <v>12526.34363537585</v>
       </c>
       <c r="K4" t="n">
-        <v>444.1308669793283</v>
+        <v>15765.21514268331</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2180,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>342.2063602120054</v>
+        <v>10473.18616735243</v>
       </c>
       <c r="O4" t="n">
-        <v>342.2063602120054</v>
+        <v>15394.1074503881</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2203,7 +2392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,10 +2512,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2335,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2347,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -2359,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2386,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2398,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2410,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2422,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2458,7 +2647,7 @@
         <v>583.2</v>
       </c>
       <c r="G4" t="n">
-        <v>583.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>583.2</v>
@@ -2467,10 +2656,10 @@
         <v>583.2</v>
       </c>
       <c r="J4" t="n">
-        <v>564.8278095705244</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>583.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>583.2</v>
@@ -2479,10 +2668,10 @@
         <v>583.2</v>
       </c>
       <c r="N4" t="n">
-        <v>583.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>583.2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>583.2</v>
@@ -2491,10 +2680,10 @@
         <v>583.2</v>
       </c>
       <c r="R4" t="n">
-        <v>583.2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>583.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2512,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2524,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2536,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2548,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2575,52 +2764,52 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>799.2</v>
       </c>
       <c r="E6" t="n">
-        <v>474.2072990330951</v>
+        <v>799.2</v>
       </c>
       <c r="F6" t="n">
         <v>642.4793214598214</v>
       </c>
       <c r="G6" t="n">
-        <v>385.4481338066896</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>121.4529147745163</v>
+        <v>799.2</v>
       </c>
       <c r="I6" t="n">
-        <v>521.3862365961863</v>
+        <v>799.2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>447.9967781647108</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>336.2008830322156</v>
+        <v>799.2</v>
       </c>
       <c r="M6" t="n">
-        <v>613.8184408014267</v>
+        <v>799.2</v>
       </c>
       <c r="N6" t="n">
-        <v>143.8477543736254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>529.0889202799565</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2159572016367</v>
+        <v>799.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>582.0092100332652</v>
+        <v>799.2</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>470.8195446351406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2638,10 +2827,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2650,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2662,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2674,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -2701,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2713,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2725,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2737,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2244.8</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2764,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2776,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2788,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2800,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2827,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>110.3981372654019</v>
+        <v>271.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2839,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2851,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2863,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>271.2</v>
       </c>
       <c r="R10" t="n">
-        <v>80.44325627296303</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2890,10 +3079,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2902,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2914,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2926,16 +3115,205 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>979.7</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2950.245774622068</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1809.681269529836</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1400.554812235259</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1992.640531466956</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2381.103035765727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2832.777992899657</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9099.082856442132</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2103.548327529337</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7237.241169816864</v>
+      </c>
+      <c r="O13" t="n">
+        <v>678.1661958006516</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1552.206830472889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5772.454105588621</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8320.892221677213</v>
+      </c>
+      <c r="K14" t="n">
+        <v>179.9209214117072</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9371.582684395618</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4096.644930067175</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8722.307124234565</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4776.454312590026</v>
       </c>
     </row>
   </sheetData>
@@ -3051,52 +3429,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>296.5710162603818</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>436.3989136982884</v>
       </c>
       <c r="E2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>900</v>
       </c>
-      <c r="F2" t="n">
-        <v>900</v>
-      </c>
-      <c r="G2" t="n">
-        <v>900</v>
-      </c>
-      <c r="H2" t="n">
-        <v>750.4585717789341</v>
-      </c>
       <c r="I2" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>793.5320349890039</v>
+        <v>-119.5425145787519</v>
       </c>
       <c r="M2" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="N2" t="n">
-        <v>753.3744775070915</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>246.0744220472225</v>
+        <v>625.2534896471192</v>
       </c>
       <c r="Q2" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="3">
@@ -3106,52 +3484,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="C3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="D3" t="n">
         <v>564.6871505936754</v>
       </c>
       <c r="E3" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="G3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="H3" t="n">
         <v>900</v>
       </c>
       <c r="I3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="J3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="K3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="L3" t="n">
-        <v>900</v>
+        <v>780.4574854212481</v>
       </c>
       <c r="M3" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="O3" t="n">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="P3" t="n">
-        <v>900</v>
+        <v>458.3581351997935</v>
       </c>
       <c r="Q3" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3161,52 +3539,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.4289837396182</v>
+        <v>-900</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D4" t="n">
         <v>128.2882368953869</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H4" t="n">
-        <v>149.5414282210659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="L4" t="n">
-        <v>106.4679650109962</v>
+        <v>900</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N4" t="n">
-        <v>146.6255224929085</v>
+        <v>-900</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="P4" t="n">
-        <v>653.9255779527775</v>
+        <v>-166.8953544473258</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -3330,52 +3708,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>657.9267088348644</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>726.1060534732725</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3388,52 +3766,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3550,49 +3928,49 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2376.351967093703</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2132.954225377933</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1050.037783323939</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3716.259928801739</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>405.6051118196228</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3682.645187764741</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1360.508353235445</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3211.292071696851</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>415.817064146509</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3090.559468533044</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>142.5744986393329</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3101.155040009765</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2702.096964234272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3603,49 +3981,49 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4724.486758069255</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3652.670140907034</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1464.098321219424</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7863.031470366148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7144.448450635375</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2420.583261536121</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6862.464185843499</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5950.922724479306</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6455.441000320241</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5018.612714162253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3653,52 +4031,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66.87025789647259</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4914.739462259176</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4227.545894411378</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2854.752357196521</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7520.64111178267</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1529.56635010172</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7120.079078588293</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3208.863768396519</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6447.735275703981</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1302.406836014634</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5903.355069932824</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1111.005284647516</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6178.55209017609</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>15.23007856512459</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5223.545687409973</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3804,52 +4182,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3966.707466036094</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3713.919462938026</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>3599.915858095372</v>
       </c>
       <c r="D2" t="n">
-        <v>3774.053433236274</v>
+        <v>4491.502624186012</v>
       </c>
       <c r="E2" t="n">
-        <v>3952.909111065899</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3681.955926294964</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4049.567804800645</v>
+        <v>4491.502624186012</v>
       </c>
       <c r="H2" t="n">
-        <v>3731.676983295283</v>
+        <v>4491.502624186012</v>
       </c>
       <c r="I2" t="n">
-        <v>3807.418243594604</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3619.333487157535</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3937.736699114393</v>
+        <v>4491.502624186012</v>
       </c>
       <c r="L2" t="n">
-        <v>3676.737389700178</v>
+        <v>4491.502624186012</v>
       </c>
       <c r="M2" t="n">
-        <v>3926.647308850473</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3640.884110502669</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3985.289979733463</v>
+        <v>4491.502624186012</v>
       </c>
       <c r="P2" t="n">
-        <v>3716.214652644066</v>
+        <v>4491.502624186012</v>
       </c>
     </row>
   </sheetData>
